--- a/NetAgent/src/main/resources/Downloads/RTE Driver Billing Report (1).xlsx
+++ b/NetAgent/src/main/resources/Downloads/RTE Driver Billing Report (1).xlsx
@@ -379,7 +379,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">05/20/2023</t>
+          <t xml:space="preserve">08/18/2023</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="K7">
@@ -389,7 +389,7 @@
       </c>
       <c s="4" t="inlineStr" r="M7">
         <is>
-          <t xml:space="preserve">05/30/2023</t>
+          <t xml:space="preserve">08/28/2023</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
   <pageMargins left="0.5" right="0" top="0.25" bottom="0.80625" header="0.25" footer="0.25"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 5/29/2023 11:23 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 8/28/2023 12:44 AM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2023 MNX Global Logistics. All rights reserved. 
 &amp;"-,Regular"Print User : selenium.automation &amp;R&amp;"Arial,Regul</oddFooter>
   </headerFooter>
